--- a/原神TD文档.xlsx
+++ b/原神TD文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="37755" windowHeight="17745" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="37755" windowHeight="17745" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="6" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="BUFF效果" sheetId="1" r:id="rId3"/>
     <sheet name="怪列表" sheetId="3" r:id="rId4"/>
     <sheet name="每一波的怪" sheetId="8" r:id="rId5"/>
-    <sheet name="物品" sheetId="5" r:id="rId6"/>
-    <sheet name="经济系统" sheetId="4" r:id="rId7"/>
-    <sheet name="商店" sheetId="7" r:id="rId8"/>
+    <sheet name="装备" sheetId="9" r:id="rId6"/>
+    <sheet name="物品" sheetId="5" r:id="rId7"/>
+    <sheet name="经济系统" sheetId="4" r:id="rId8"/>
+    <sheet name="商店" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="588">
   <si>
     <t>刷新1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2207,10 +2208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>技能8</t>
   </si>
   <si>
@@ -2511,10 +2508,6 @@
   </si>
   <si>
     <t>对目标造成最大生命值30%的伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加30%受到的伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3105,6 +3098,126 @@
   </si>
   <si>
     <t>14、88</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加30%受到的伤害，持续7秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却缩减增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术连击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级提升比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSS级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3382,7 +3495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3481,10 +3594,13 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3499,8 +3615,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5572,7 +5697,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5620,19 +5745,19 @@
         <v>351</v>
       </c>
       <c r="M1" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>406</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5897,7 +6022,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>402</v>
+        <v>558</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>400</v>
@@ -5909,22 +6034,22 @@
         <v>0</v>
       </c>
       <c r="F11" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>413</v>
-      </c>
       <c r="H11" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="J11" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="K11" s="27" t="s">
         <v>410</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>411</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -6153,8 +6278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6178,7 +6303,7 @@
         <v>327</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>328</v>
@@ -6218,7 +6343,7 @@
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>178</v>
@@ -6258,7 +6383,7 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>182</v>
@@ -6298,7 +6423,7 @@
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>183</v>
@@ -6338,7 +6463,7 @@
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>184</v>
@@ -6378,7 +6503,7 @@
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>335</v>
@@ -6418,7 +6543,7 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>336</v>
@@ -6458,7 +6583,7 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>337</v>
@@ -6498,7 +6623,7 @@
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>340</v>
@@ -6537,10 +6662,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -6559,10 +6684,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -6581,10 +6706,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -6603,10 +6728,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -6625,10 +6750,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -6647,16 +6772,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -6673,16 +6798,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -6699,16 +6824,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -6727,7 +6852,7 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
@@ -6747,7 +6872,7 @@
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="29" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
@@ -6767,7 +6892,7 @@
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -6785,10 +6910,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -6827,13 +6952,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>551</v>
+        <v>540</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>549</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
@@ -6844,7 +6969,7 @@
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N23" s="26"/>
     </row>
@@ -6854,10 +6979,10 @@
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
@@ -6868,7 +6993,7 @@
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="27" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N24" s="26"/>
     </row>
@@ -6878,10 +7003,10 @@
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
@@ -6892,7 +7017,7 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="27" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N25" s="26"/>
     </row>
@@ -6902,10 +7027,10 @@
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -6926,10 +7051,10 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
@@ -6950,10 +7075,10 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
@@ -6974,10 +7099,10 @@
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
@@ -6988,7 +7113,7 @@
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="27" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N29" s="26"/>
     </row>
@@ -6998,10 +7123,10 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
@@ -7020,10 +7145,10 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
@@ -7044,10 +7169,10 @@
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
@@ -7084,10 +7209,10 @@
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
@@ -7165,8 +7290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="L123" sqref="L123"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7199,7 +7324,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7213,7 +7338,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="1" t="s">
         <v>103</v>
       </c>
@@ -7225,7 +7350,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>106</v>
       </c>
@@ -7237,7 +7362,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="1" t="s">
         <v>108</v>
       </c>
@@ -7249,13 +7374,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="1" t="s">
         <v>109</v>
       </c>
@@ -7267,7 +7392,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="1" t="s">
         <v>110</v>
       </c>
@@ -7279,7 +7404,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="1" t="s">
         <v>111</v>
       </c>
@@ -7291,13 +7416,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="1" t="s">
         <v>112</v>
       </c>
@@ -7309,7 +7434,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="1" t="s">
         <v>113</v>
       </c>
@@ -7321,7 +7446,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="1" t="s">
         <v>114</v>
       </c>
@@ -7333,13 +7458,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="1" t="s">
         <v>115</v>
       </c>
@@ -7351,7 +7476,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="1" t="s">
         <v>116</v>
       </c>
@@ -7363,7 +7488,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="1" t="s">
         <v>117</v>
       </c>
@@ -7375,13 +7500,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3"/>
       <c r="C19" s="9"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="1" t="s">
         <v>118</v>
       </c>
@@ -7393,7 +7518,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -7405,7 +7530,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
@@ -7417,7 +7542,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -7429,7 +7554,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -7443,7 +7568,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="1" t="s">
         <v>291</v>
       </c>
@@ -7455,7 +7580,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="1" t="s">
         <v>292</v>
       </c>
@@ -7467,7 +7592,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="1" t="s">
         <v>293</v>
       </c>
@@ -7475,17 +7600,17 @@
         <v>0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="1" t="s">
         <v>104</v>
       </c>
@@ -7497,7 +7622,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="1" t="s">
         <v>105</v>
       </c>
@@ -7509,7 +7634,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="1" t="s">
         <v>107</v>
       </c>
@@ -7521,13 +7646,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="1" t="s">
         <v>120</v>
       </c>
@@ -7535,11 +7660,11 @@
         <v>49</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -7547,11 +7672,11 @@
         <v>48</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="1" t="s">
         <v>111</v>
       </c>
@@ -7559,17 +7684,17 @@
         <v>47</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="1" t="s">
         <v>115</v>
       </c>
@@ -7577,11 +7702,11 @@
         <v>8</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="1" t="s">
         <v>116</v>
       </c>
@@ -7593,7 +7718,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="1" t="s">
         <v>117</v>
       </c>
@@ -7605,13 +7730,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="1" t="s">
         <v>35</v>
       </c>
@@ -7623,7 +7748,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
@@ -7635,7 +7760,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="1" t="s">
         <v>31</v>
       </c>
@@ -7647,7 +7772,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
@@ -7659,7 +7784,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -7673,7 +7798,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="1" t="s">
         <v>109</v>
       </c>
@@ -7685,7 +7810,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="1" t="s">
         <v>110</v>
       </c>
@@ -7697,7 +7822,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="1" t="s">
         <v>111</v>
       </c>
@@ -7705,17 +7830,17 @@
         <v>0</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="1" t="s">
         <v>103</v>
       </c>
@@ -7727,7 +7852,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="1" t="s">
         <v>105</v>
       </c>
@@ -7739,7 +7864,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="1" t="s">
         <v>107</v>
       </c>
@@ -7751,13 +7876,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
+      <c r="A59" s="42"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="1" t="s">
         <v>112</v>
       </c>
@@ -7769,7 +7894,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="1" t="s">
         <v>113</v>
       </c>
@@ -7781,7 +7906,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="1" t="s">
         <v>114</v>
       </c>
@@ -7789,59 +7914,59 @@
         <v>1</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
+      <c r="A63" s="42"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
+      <c r="A64" s="42"/>
       <c r="B64" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
+      <c r="A65" s="42"/>
       <c r="B65" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41"/>
+      <c r="A66" s="42"/>
       <c r="B66" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="1" t="s">
         <v>35</v>
       </c>
@@ -7853,7 +7978,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="1" t="s">
         <v>33</v>
       </c>
@@ -7865,7 +7990,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="1" t="s">
         <v>31</v>
       </c>
@@ -7877,19 +8002,19 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="44" t="s">
         <v>40</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -7903,7 +8028,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="43"/>
+      <c r="A76" s="44"/>
       <c r="B76" s="1" t="s">
         <v>123</v>
       </c>
@@ -7915,7 +8040,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="43"/>
+      <c r="A77" s="44"/>
       <c r="B77" s="1" t="s">
         <v>116</v>
       </c>
@@ -7927,7 +8052,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="43"/>
+      <c r="A78" s="44"/>
       <c r="B78" s="1" t="s">
         <v>117</v>
       </c>
@@ -7935,17 +8060,17 @@
         <v>0</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="43"/>
+      <c r="A79" s="44"/>
       <c r="B79" s="12"/>
       <c r="C79" s="3"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="43"/>
+      <c r="A80" s="44"/>
       <c r="B80" s="1" t="s">
         <v>104</v>
       </c>
@@ -7953,11 +8078,11 @@
         <v>39</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="43"/>
+      <c r="A81" s="44"/>
       <c r="B81" s="1" t="s">
         <v>105</v>
       </c>
@@ -7965,11 +8090,11 @@
         <v>39</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="43"/>
+      <c r="A82" s="44"/>
       <c r="B82" s="1" t="s">
         <v>107</v>
       </c>
@@ -7981,67 +8106,67 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="43"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="12"/>
       <c r="C83" s="3"/>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="43"/>
+      <c r="A84" s="44"/>
       <c r="B84" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="43"/>
+      <c r="A85" s="44"/>
       <c r="B85" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="43"/>
+      <c r="A86" s="44"/>
       <c r="B86" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="43"/>
+      <c r="A87" s="44"/>
       <c r="B87" s="12"/>
       <c r="C87" s="3"/>
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="43"/>
+      <c r="A88" s="44"/>
       <c r="B88" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="43"/>
+      <c r="A89" s="44"/>
       <c r="B89" s="1" t="s">
         <v>113</v>
       </c>
@@ -8053,7 +8178,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="43"/>
+      <c r="A90" s="44"/>
       <c r="B90" s="1" t="s">
         <v>114</v>
       </c>
@@ -8065,13 +8190,13 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="43"/>
+      <c r="A91" s="44"/>
       <c r="B91" s="12"/>
       <c r="C91" s="3"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="43"/>
+      <c r="A92" s="44"/>
       <c r="B92" s="1" t="s">
         <v>35</v>
       </c>
@@ -8083,7 +8208,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="43"/>
+      <c r="A93" s="44"/>
       <c r="B93" s="1" t="s">
         <v>33</v>
       </c>
@@ -8095,19 +8220,19 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="43"/>
+      <c r="A94" s="44"/>
       <c r="B94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="43"/>
+      <c r="A95" s="44"/>
       <c r="B95" s="1" t="s">
         <v>30</v>
       </c>
@@ -8115,18 +8240,18 @@
         <v>29</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
       <c r="E99" s="11" t="s">
         <v>124</v>
       </c>
@@ -8187,7 +8312,7 @@
         <v>22</v>
       </c>
       <c r="B103" s="39" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C103" s="39"/>
       <c r="D103" s="39"/>
@@ -8263,7 +8388,7 @@
         <v>17</v>
       </c>
       <c r="B108" s="39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
@@ -8355,7 +8480,7 @@
         <v>137</v>
       </c>
       <c r="B114" s="39" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C114" s="39"/>
       <c r="D114" s="39"/>
@@ -8371,7 +8496,7 @@
         <v>138</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
@@ -8387,7 +8512,7 @@
         <v>139</v>
       </c>
       <c r="B116" s="39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C116" s="39"/>
       <c r="D116" s="39"/>
@@ -8403,7 +8528,7 @@
         <v>11</v>
       </c>
       <c r="B117" s="39" t="s">
-        <v>477</v>
+        <v>559</v>
       </c>
       <c r="C117" s="39"/>
       <c r="D117" s="39"/>
@@ -8419,7 +8544,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>477</v>
+        <v>559</v>
       </c>
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
@@ -8435,7 +8560,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
@@ -8449,7 +8574,7 @@
         <v>8</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
@@ -8465,7 +8590,7 @@
         <v>7</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C121" s="39"/>
       <c r="D121" s="39"/>
@@ -8481,7 +8606,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C122" s="39"/>
       <c r="D122" s="39"/>
@@ -8496,11 +8621,11 @@
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B123" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
+      <c r="B123" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
       <c r="E123" s="11" t="s">
         <v>167</v>
       </c>
@@ -8555,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="39" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
@@ -8566,10 +8691,10 @@
     </row>
     <row r="128" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B128" s="39" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
@@ -8580,10 +8705,10 @@
     </row>
     <row r="129" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="35" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B129" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C129" s="39"/>
       <c r="D129" s="39"/>
@@ -8592,10 +8717,10 @@
     </row>
     <row r="130" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B130" s="39" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C130" s="39"/>
       <c r="D130" s="39"/>
@@ -8604,10 +8729,10 @@
     </row>
     <row r="131" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B131" s="39" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
@@ -8669,8 +8794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8700,24 +8825,24 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G1" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="M1" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P1" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>434</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8730,13 +8855,13 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N2" s="14">
         <v>1.7</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q2" s="14">
         <v>3</v>
@@ -8752,13 +8877,13 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="M3" s="35" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N3" s="35">
         <v>1.1000000000000001</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q3" s="14">
         <v>2</v>
@@ -8769,7 +8894,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="M4" s="35" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="N4" s="35">
         <v>1.1000000000000001</v>
@@ -8792,7 +8917,7 @@
         <v>289</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>310</v>
@@ -8840,40 +8965,40 @@
         <v>0.3</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N6" s="14" t="s">
         <v>310</v>
       </c>
       <c r="O6" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q6" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="R6" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="Q6" s="35" t="s">
+      <c r="S6" s="35" t="s">
         <v>485</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="T6" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="U6" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="T6" s="35" t="s">
+      <c r="V6" s="35" t="s">
         <v>488</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="W6" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="V6" s="35" t="s">
+      <c r="X6" s="35" t="s">
         <v>490</v>
-      </c>
-      <c r="W6" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="X6" s="35" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9203,7 +9328,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="M11" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="35"/>
@@ -9264,13 +9389,13 @@
         <v>202</v>
       </c>
       <c r="P14" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q14" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="R14" s="21" t="s">
         <v>432</v>
-      </c>
-      <c r="R14" s="21" t="s">
-        <v>433</v>
       </c>
       <c r="S14" s="21"/>
     </row>
@@ -9421,7 +9546,7 @@
         <v>1.1140000000000001E-2</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J17" s="21">
         <v>0.03</v>
@@ -9479,7 +9604,7 @@
         <v>1.1940000000000001E-2</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J18" s="21">
         <v>0.03</v>
@@ -9537,7 +9662,7 @@
         <v>1.2900000000000002E-2</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J19" s="21">
         <v>0.03</v>
@@ -9595,7 +9720,7 @@
         <v>1.4020000000000001E-2</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J20" s="21">
         <v>0.03</v>
@@ -9653,7 +9778,7 @@
         <v>1.5300000000000001E-2</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J21" s="21">
         <v>0.03</v>
@@ -9711,7 +9836,7 @@
         <v>1.6740000000000001E-2</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J22" s="21">
         <v>0.03</v>
@@ -9769,7 +9894,7 @@
         <v>1.8340000000000002E-2</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J23" s="21">
         <v>0.03</v>
@@ -9827,7 +9952,7 @@
         <v>2.0100000000000003E-2</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J24" s="21">
         <v>0.03</v>
@@ -9885,7 +10010,7 @@
         <v>2.2020000000000005E-2</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J25" s="21">
         <v>0.03</v>
@@ -9943,7 +10068,7 @@
         <v>2.4100000000000003E-2</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J26" s="21">
         <v>0.03</v>
@@ -10001,7 +10126,7 @@
         <v>2.6340000000000002E-2</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J27" s="21">
         <v>0.03</v>
@@ -10059,7 +10184,7 @@
         <v>2.8740000000000002E-2</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J28" s="21">
         <v>0.03</v>
@@ -10117,7 +10242,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J29" s="21">
         <v>0.03</v>
@@ -10175,7 +10300,7 @@
         <v>3.4020000000000002E-2</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J30" s="21">
         <v>0.03</v>
@@ -10233,7 +10358,7 @@
         <v>3.6900000000000002E-2</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J31" s="21">
         <v>0.03</v>
@@ -10291,7 +10416,7 @@
         <v>3.9940000000000003E-2</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J32" s="21">
         <v>0.03</v>
@@ -10349,7 +10474,7 @@
         <v>4.3140000000000005E-2</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J33" s="21">
         <v>0.03</v>
@@ -10407,7 +10532,7 @@
         <v>4.6500000000000007E-2</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J34" s="21">
         <v>0.03</v>
@@ -10465,7 +10590,7 @@
         <v>5.0020000000000009E-2</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J35" s="21">
         <v>0.03</v>
@@ -10523,7 +10648,7 @@
         <v>5.3700000000000012E-2</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J36" s="21">
         <v>0.03</v>
@@ -10581,7 +10706,7 @@
         <v>5.7540000000000015E-2</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J37" s="21">
         <v>0.03</v>
@@ -10639,7 +10764,7 @@
         <v>6.1540000000000011E-2</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J38" s="21">
         <v>0.03</v>
@@ -10697,7 +10822,7 @@
         <v>6.5700000000000008E-2</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J39" s="21">
         <v>0.03</v>
@@ -10755,7 +10880,7 @@
         <v>7.0020000000000013E-2</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J40" s="21">
         <v>0.03</v>
@@ -10813,7 +10938,7 @@
         <v>7.4500000000000011E-2</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J41" s="21">
         <v>0.03</v>
@@ -10871,7 +10996,7 @@
         <v>7.9140000000000016E-2</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J42" s="21">
         <v>0.03</v>
@@ -10929,7 +11054,7 @@
         <v>8.3940000000000015E-2</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J43" s="21">
         <v>0.03</v>
@@ -10987,7 +11112,7 @@
         <v>8.8900000000000021E-2</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J44" s="21">
         <v>0.03</v>
@@ -11045,7 +11170,7 @@
         <v>9.402000000000002E-2</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J45" s="21">
         <v>0.03</v>
@@ -11103,7 +11228,7 @@
         <v>9.9300000000000027E-2</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J46" s="21">
         <v>0.03</v>
@@ -11161,7 +11286,7 @@
         <v>0.10474000000000003</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J47" s="21">
         <v>0.03</v>
@@ -11219,7 +11344,7 @@
         <v>0.11034000000000002</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J48" s="21">
         <v>0.03</v>
@@ -11277,7 +11402,7 @@
         <v>0.11610000000000002</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J49" s="21">
         <v>0.03</v>
@@ -11335,7 +11460,7 @@
         <v>0.12202000000000002</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J50" s="21">
         <v>0.03</v>
@@ -11393,7 +11518,7 @@
         <v>0.12812100000000001</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J51" s="21">
         <v>0.03</v>
@@ -11451,7 +11576,7 @@
         <v>0.13452705000000001</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J52" s="21">
         <v>0.03</v>
@@ -11509,7 +11634,7 @@
         <v>0.14125340250000001</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J53" s="21">
         <v>0.03</v>
@@ -11567,7 +11692,7 @@
         <v>0.14831607262500002</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J54" s="21">
         <v>0.03</v>
@@ -11634,7 +11759,7 @@
         <v>0.1</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J55" s="21">
         <v>0.03</v>
@@ -11688,7 +11813,7 @@
         <v>0.10500000000000001</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J56" s="21">
         <v>0.03</v>
@@ -11742,7 +11867,7 @@
         <v>0.11025000000000001</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J57" s="21">
         <v>0.03</v>
@@ -11796,7 +11921,7 @@
         <v>0.11576250000000002</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J58" s="21">
         <v>0.03</v>
@@ -11850,7 +11975,7 @@
         <v>0.12155062500000002</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J59" s="21">
         <v>0.03</v>
@@ -11904,7 +12029,7 @@
         <v>0.12762815625000004</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J60" s="21">
         <v>0.03</v>
@@ -11958,7 +12083,7 @@
         <v>0.13400956406250006</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J61" s="21">
         <v>0.03</v>
@@ -12012,7 +12137,7 @@
         <v>0.14071004226562506</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J62" s="21">
         <v>0.03</v>
@@ -12066,7 +12191,7 @@
         <v>0.14774554437890633</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J63" s="21">
         <v>0.03</v>
@@ -12120,7 +12245,7 @@
         <v>0.15513282159785166</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J64" s="21">
         <v>0.03</v>
@@ -12148,10 +12273,10 @@
         <v>51</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D65" s="21">
         <v>200</v>
@@ -12197,10 +12322,10 @@
         <v>52</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D66" s="21">
         <v>200</v>
@@ -12246,10 +12371,10 @@
         <v>53</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D67" s="21">
         <v>200</v>
@@ -12295,10 +12420,10 @@
         <v>54</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D68" s="21">
         <v>200</v>
@@ -12333,10 +12458,10 @@
         <v>55</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>456</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>457</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
@@ -12356,10 +12481,10 @@
         <v>56</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
@@ -12379,10 +12504,10 @@
         <v>57</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D71" s="21">
         <v>0</v>
@@ -12549,10 +12674,10 @@
         <v>66</v>
       </c>
       <c r="B80" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>429</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>430</v>
       </c>
       <c r="D80" s="21">
         <v>45</v>
@@ -12574,24 +12699,24 @@
     <row r="82" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="C83" s="27" t="s">
         <v>527</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12660,7 +12785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
@@ -12673,49 +12798,49 @@
   <sheetData>
     <row r="1" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>420</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>421</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>204</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>423</v>
-      </c>
       <c r="I1" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J1" s="33" t="s">
         <v>204</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N1" s="34" t="s">
         <v>204</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P1" s="27"/>
       <c r="Q1" s="27"/>
@@ -12736,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C2" s="27">
         <v>30</v>
@@ -12796,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C3" s="27">
         <v>30</v>
@@ -13036,7 +13161,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7" s="27">
         <v>100</v>
@@ -13096,7 +13221,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C8" s="27">
         <v>30</v>
@@ -13336,7 +13461,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C12" s="27">
         <v>120</v>
@@ -13636,7 +13761,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C17" s="27">
         <v>100</v>
@@ -13936,7 +14061,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C22" s="27">
         <v>120</v>
@@ -14236,7 +14361,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C27" s="27">
         <v>100</v>
@@ -14536,7 +14661,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C32" s="27">
         <v>120</v>
@@ -14836,7 +14961,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C37" s="27">
         <v>100</v>
@@ -15194,7 +15319,7 @@
     <row r="43" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27">
@@ -15205,25 +15330,25 @@
     <row r="45" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D46" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>420</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>421</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>204</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -15239,7 +15364,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C47" s="27">
         <v>0</v>
@@ -15270,13 +15395,13 @@
         <v>2</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C48" s="27">
         <v>0</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E48" s="27">
         <v>0</v>
@@ -15301,7 +15426,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C49" s="27">
         <v>0</v>
@@ -15468,10 +15593,530 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A8:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>566</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>568</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>571</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="B9" s="46">
+        <v>1</v>
+      </c>
+      <c r="C9" s="46">
+        <v>200</v>
+      </c>
+      <c r="D9" s="46">
+        <v>15</v>
+      </c>
+      <c r="E9" s="46">
+        <v>40</v>
+      </c>
+      <c r="F9" s="46">
+        <v>1</v>
+      </c>
+      <c r="G9" s="46">
+        <v>50</v>
+      </c>
+      <c r="H9" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="J9" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="K9" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="L9" s="47">
+        <v>0.15</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>576</v>
+      </c>
+      <c r="B10" s="46">
+        <v>1</v>
+      </c>
+      <c r="C10" s="46">
+        <f>C9*$S10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="46">
+        <f t="shared" ref="D10:L17" si="0">D9*$S10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="47">
+        <f>L9*$S10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" s="46">
+        <v>2</v>
+      </c>
+      <c r="C11" s="46">
+        <f t="shared" ref="C11:C17" si="1">C10*$S11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" s="46">
+        <v>2</v>
+      </c>
+      <c r="C12" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="C13" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
+        <v>581</v>
+      </c>
+      <c r="B14" s="46">
+        <v>3</v>
+      </c>
+      <c r="C14" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="C15" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>584</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>585</v>
+      </c>
+      <c r="C16" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>586</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15710,8 +16355,12 @@
     <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>561</v>
+      </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -15983,91 +16632,212 @@
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
     </row>
-    <row r="39" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+    </row>
     <row r="40" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>382</v>
-      </c>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>384</v>
-      </c>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
-    </row>
-    <row r="45" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-    </row>
-    <row r="46" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-    </row>
-    <row r="47" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-    </row>
-    <row r="48" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-    </row>
-    <row r="49" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-    </row>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
+      <c r="A51" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
     </row>
+    <row r="53" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+    </row>
+    <row r="54" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+    </row>
+    <row r="55" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+    </row>
+    <row r="56" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+    </row>
+    <row r="58" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+    </row>
+    <row r="59" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+    </row>
+    <row r="60" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+    </row>
+    <row r="61" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+    </row>
+    <row r="62" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
@@ -16960,7 +17730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA47"/>
   <sheetViews>

--- a/原神TD文档.xlsx
+++ b/原神TD文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BD0B41-ADD1-4DE1-A2F9-ADEC88373644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AB3543-01F3-4DD6-AF6D-45E7EE9B3683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4352,7 +4352,7 @@
   </si>
   <si>
     <r>
-      <t>清除风元素，获得火元素1层的效果，并弹跳至600码直线距离的 无火元素 的单位，使其获得</t>
+      <t>清除风元素，获得火元素1层的效果，并弹跳至600码直线距离的单位，其中无火元素的单位获得</t>
     </r>
     <r>
       <rPr>
@@ -4378,7 +4378,7 @@
   </si>
   <si>
     <r>
-      <t>清除风元素，获得火元素2层的效果，并弹跳至600码直线距离的 无火元素 的单位，使其获得</t>
+      <t>清除风元素，获得火元素2层的效果，并弹跳至600码直线距离的单位，其中无火元素的单位获得</t>
     </r>
     <r>
       <rPr>
@@ -4400,10 +4400,11 @@
       </rPr>
       <t>，最大弹跳目标9</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>清除风元素，获得火元素2层的效果，并弹跳至600码直线距离的 无火元素 的单位，使其获得</t>
+      <t>清除风元素，获得火元素2层的效果，并弹跳至600码直线距离的单位，其中无火元素的单位获得</t>
     </r>
     <r>
       <rPr>
@@ -4439,26 +4440,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">超导2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\ 清除水元素，获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雷元素1</t>
+      <t>刷新</t>
     </r>
     <r>
       <rPr>
@@ -4468,7 +4450,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>，并弹跳至450码直线距离的 无雷元素 的单位，使其获得</t>
+      <t xml:space="preserve"> \ 不获得水元素，并弹跳至450码直线距离的单位，其中无雷元素的单位获得</t>
     </r>
     <r>
       <rPr>
@@ -4487,8 +4469,99 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>，最大弹跳目标9</t>
+      <t>，最大弹跳目标6</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">刷新 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\ 不获得水元素，并弹跳至450码直线距离的单位，其中雷元素=1的单位变成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷元素2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最大弹跳目标6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刷新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> \ 不获得水元素，并弹跳至450码直线距离的单位，其中雷元素=2的单位变成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷元素3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最大弹跳目标6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4532,7 +4605,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>，并弹跳至450码直线距离的 无雷元素 的单位，使其获得</t>
+      <t>，并弹跳至450码直线距离的单位，其中无雷元素的单位获得</t>
     </r>
     <r>
       <rPr>
@@ -4552,6 +4625,70 @@
         <charset val="134"/>
       </rPr>
       <t>，最大弹跳目标6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">超导2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\ 清除水元素，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷元素1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并弹跳至450码直线距离的单位，其中无雷元素的单位获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷元素1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最大弹跳目标9</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4577,7 +4714,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> \ 不获得风元素，并弹跳至600码直线距离的 无火元素 的单位，使其获得</t>
+      <t xml:space="preserve"> \ 不获得风元素，并弹跳至450码直线距离的单位，其中无火元素的单位获得</t>
     </r>
     <r>
       <rPr>
@@ -4599,6 +4736,7 @@
       </rPr>
       <t>，最大弹跳目标6</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4622,7 +4760,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> \ 不获得风元素，并弹跳至600码直线距离的 火元素&lt;2 的单位，使其获得</t>
+      <t xml:space="preserve"> \ 不获得风元素，并弹跳至450码直线距离的单位，其中火元素=1的单位获得</t>
     </r>
     <r>
       <rPr>
@@ -4638,141 +4776,6 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，最大弹跳目标6</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>触发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刷新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> \ 不获得水元素，并弹跳至450码直线距离的 无雷元素 的单位，使其获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雷元素1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，最大弹跳目标6</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>触发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">刷新 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\ 不获得水元素，并弹跳至450码直线距离的 雷元素&lt;2 的单位，使其获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雷元素2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，最大弹跳目标6</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>触发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刷新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> \ 不获得水元素，并弹跳至450码直线距离的 雷元素&lt;3 的单位，使其获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雷元素3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -18107,8 +18110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18477,7 +18480,7 @@
         <v>49</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -18489,7 +18492,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -18501,7 +18504,7 @@
         <v>47</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -18707,7 +18710,7 @@
         <v>44</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -18719,7 +18722,7 @@
         <v>43</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -18895,7 +18898,7 @@
         <v>39</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -18907,7 +18910,7 @@
         <v>39</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -19562,17 +19565,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="A27:A47"/>
-    <mergeCell ref="A51:A71"/>
-    <mergeCell ref="A75:A95"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="B106:D106"/>
@@ -19589,16 +19591,17 @@
     <mergeCell ref="B116:D116"/>
     <mergeCell ref="B118:D118"/>
     <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="A27:A47"/>
+    <mergeCell ref="A51:A71"/>
+    <mergeCell ref="A75:A95"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
